--- a/config/testcases/Report_BE.RP05MultipleChoice(Clone).xlsx
+++ b/config/testcases/Report_BE.RP05MultipleChoice(Clone).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>TCID</t>
   </si>
@@ -202,10 +202,10 @@
     <t>*RP05MultipleChoice*,120</t>
   </si>
   <si>
-    <t>15,.mp3</t>
+    <t>sleep</t>
   </si>
   <si>
-    <t>$.turn[0].word[?(@.type=='phonic')].audio[*].file_path</t>
+    <t>second,2</t>
   </si>
   <si>
     <t>TS7</t>
@@ -446,18 +446,18 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1518,25 +1518,23 @@
       <c r="C9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="E9" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="F9" s="34"/>
       <c r="G9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="26"/>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
@@ -1557,23 +1555,23 @@
       <c r="B10" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="32"/>
+      <c r="K10" s="34"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -1610,13 +1608,13 @@
       <c r="G11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="35"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="42"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
       <c r="O11" s="26"/>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
@@ -7168,9 +7166,18 @@
       <c r="Z142" s="49"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="49"/>
-      <c r="B143" s="49"/>
-      <c r="C143" s="49"/>
+      <c r="A143" s="49" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"clickLesson")</f>
+        <v>clickLesson</v>
+      </c>
+      <c r="B143" s="49" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property")</f>
+        <v>element,component,property</v>
+      </c>
+      <c r="C143" s="49" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D143" s="49"/>
       <c r="E143" s="49"/>
       <c r="F143" s="49"/>
@@ -7196,9 +7203,15 @@
       <c r="Z143" s="49"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="49"/>
+      <c r="A144" s="49" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMapMgo")</f>
+        <v>swipeMapMgo</v>
+      </c>
       <c r="B144" s="49"/>
-      <c r="C144" s="49"/>
+      <c r="C144" s="49" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D144" s="49"/>
       <c r="E144" s="49"/>
       <c r="F144" s="49"/>
@@ -7224,9 +7237,18 @@
       <c r="Z144" s="49"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="49"/>
-      <c r="B145" s="49"/>
-      <c r="C145" s="49"/>
+      <c r="A145" s="49" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"verifyFlow")</f>
+        <v>verifyFlow</v>
+      </c>
+      <c r="B145" s="49" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"file expected")</f>
+        <v>file expected</v>
+      </c>
+      <c r="C145" s="49" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D145" s="49"/>
       <c r="E145" s="49"/>
       <c r="F145" s="49"/>
@@ -7252,9 +7274,15 @@
       <c r="Z145" s="49"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="49"/>
+      <c r="A146" s="49" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFileWhichCondition")</f>
+        <v>setVariableFileWhichCondition</v>
+      </c>
       <c r="B146" s="49"/>
-      <c r="C146" s="49"/>
+      <c r="C146" s="49" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D146" s="49"/>
       <c r="E146" s="49"/>
       <c r="F146" s="49"/>
@@ -7280,7 +7308,10 @@
       <c r="Z146" s="49"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="49"/>
+      <c r="A147" s="49" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfStringFile")</f>
+        <v>setVariableTypeOfStringFile</v>
+      </c>
       <c r="B147" s="49"/>
       <c r="C147" s="49"/>
       <c r="D147" s="49"/>
@@ -7308,7 +7339,10 @@
       <c r="Z147" s="49"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="49"/>
+      <c r="A148" s="49" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfIntFile")</f>
+        <v>setVariableTypeOfIntFile</v>
+      </c>
       <c r="B148" s="49"/>
       <c r="C148" s="49"/>
       <c r="D148" s="49"/>
@@ -7336,7 +7370,10 @@
       <c r="Z148" s="49"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="49"/>
+      <c r="A149" s="49" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPath")</f>
+        <v>getPath</v>
+      </c>
       <c r="B149" s="49"/>
       <c r="C149" s="49"/>
       <c r="D149" s="49"/>
@@ -31215,7 +31252,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="53" t="s">
